--- a/SuppXLS/Scen_Par-SYS_CB_Overshoot_400MT.xlsx
+++ b/SuppXLS/Scen_Par-SYS_CB_Overshoot_400MT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\times-ireland-model-main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model-VAv2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A747D3-2076-42FE-9B66-5B0FEED5BFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDA84AB-6B0C-4A2A-97CC-435A26FD0A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="24" r:id="rId1"/>
@@ -403,9 +403,6 @@
     <t>ENV</t>
   </si>
   <si>
-    <t>*CO2*,-*CO2S</t>
-  </si>
-  <si>
     <t>UC_CUMFLO</t>
   </si>
   <si>
@@ -503,6 +500,9 @@
   </si>
   <si>
     <t>~InputCell:1-13</t>
+  </si>
+  <si>
+    <t>TOTCO2</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1140,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1484,20 +1484,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="10" width="8.109375" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1525,7 +1525,7 @@
       <c r="Y1" s="19"/>
       <c r="Z1" s="19"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1553,7 +1553,7 @@
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1581,7 +1581,7 @@
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -1609,7 +1609,7 @@
       <c r="Y4" s="19"/>
       <c r="Z4" s="19"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1637,7 +1637,7 @@
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1665,7 +1665,7 @@
       <c r="Y6" s="19"/>
       <c r="Z6" s="19"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1693,7 +1693,7 @@
       <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -1721,7 +1721,7 @@
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -1749,7 +1749,7 @@
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -1777,7 +1777,7 @@
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1805,7 +1805,7 @@
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1833,7 +1833,7 @@
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1861,7 +1861,7 @@
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -1889,7 +1889,7 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -1917,9 +1917,9 @@
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -1947,7 +1947,7 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1975,7 +1975,7 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -2003,12 +2003,12 @@
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
@@ -2035,12 +2035,12 @@
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
@@ -2067,12 +2067,12 @@
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -2099,7 +2099,7 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -2127,12 +2127,12 @@
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
@@ -2159,7 +2159,7 @@
       <c r="Y23" s="19"/>
       <c r="Z23" s="19"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -2187,7 +2187,7 @@
       <c r="Y24" s="19"/>
       <c r="Z24" s="19"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -2215,12 +2215,12 @@
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
@@ -2247,7 +2247,7 @@
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -2275,7 +2275,7 @@
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -2303,9 +2303,9 @@
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="28"/>
@@ -2333,12 +2333,12 @@
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>98</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>99</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -2365,12 +2365,12 @@
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="36" t="s">
         <v>100</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>101</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
@@ -2397,10 +2397,10 @@
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
@@ -2427,7 +2427,7 @@
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2455,7 +2455,7 @@
       <c r="Y33" s="19"/>
       <c r="Z33" s="19"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -2483,7 +2483,7 @@
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -2511,7 +2511,7 @@
       <c r="Y35" s="19"/>
       <c r="Z35" s="19"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -2539,7 +2539,7 @@
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -2567,7 +2567,7 @@
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -2595,7 +2595,7 @@
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -2623,7 +2623,7 @@
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -2651,7 +2651,7 @@
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -2679,7 +2679,7 @@
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -2707,7 +2707,7 @@
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -2735,7 +2735,7 @@
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -2763,7 +2763,7 @@
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -2791,7 +2791,7 @@
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -2819,7 +2819,7 @@
       <c r="Y46" s="19"/>
       <c r="Z46" s="19"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -2847,7 +2847,7 @@
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -2875,7 +2875,7 @@
       <c r="Y48" s="19"/>
       <c r="Z48" s="19"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -2903,7 +2903,7 @@
       <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -2931,7 +2931,7 @@
       <c r="Y50" s="19"/>
       <c r="Z50" s="19"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -2959,7 +2959,7 @@
       <c r="Y51" s="19"/>
       <c r="Z51" s="19"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -2987,7 +2987,7 @@
       <c r="Y52" s="19"/>
       <c r="Z52" s="19"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -3015,7 +3015,7 @@
       <c r="Y53" s="19"/>
       <c r="Z53" s="19"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -3043,7 +3043,7 @@
       <c r="Y54" s="19"/>
       <c r="Z54" s="19"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -3071,7 +3071,7 @@
       <c r="Y55" s="19"/>
       <c r="Z55" s="19"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -3099,7 +3099,7 @@
       <c r="Y56" s="19"/>
       <c r="Z56" s="19"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -3127,7 +3127,7 @@
       <c r="Y57" s="19"/>
       <c r="Z57" s="19"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -3155,7 +3155,7 @@
       <c r="Y58" s="19"/>
       <c r="Z58" s="19"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -3183,7 +3183,7 @@
       <c r="Y59" s="19"/>
       <c r="Z59" s="19"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -3211,7 +3211,7 @@
       <c r="Y60" s="19"/>
       <c r="Z60" s="19"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -3239,7 +3239,7 @@
       <c r="Y61" s="19"/>
       <c r="Z61" s="19"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -3267,7 +3267,7 @@
       <c r="Y62" s="19"/>
       <c r="Z62" s="19"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -3295,7 +3295,7 @@
       <c r="Y63" s="19"/>
       <c r="Z63" s="19"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -3323,7 +3323,7 @@
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -3351,7 +3351,7 @@
       <c r="Y65" s="19"/>
       <c r="Z65" s="19"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -3379,7 +3379,7 @@
       <c r="Y66" s="19"/>
       <c r="Z66" s="19"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -3407,7 +3407,7 @@
       <c r="Y67" s="19"/>
       <c r="Z67" s="19"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -3435,7 +3435,7 @@
       <c r="Y68" s="19"/>
       <c r="Z68" s="19"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -3463,7 +3463,7 @@
       <c r="Y69" s="19"/>
       <c r="Z69" s="19"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -3491,7 +3491,7 @@
       <c r="Y70" s="19"/>
       <c r="Z70" s="19"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -3519,7 +3519,7 @@
       <c r="Y71" s="19"/>
       <c r="Z71" s="19"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -3547,7 +3547,7 @@
       <c r="Y72" s="19"/>
       <c r="Z72" s="19"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -3575,7 +3575,7 @@
       <c r="Y73" s="19"/>
       <c r="Z73" s="19"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -3603,7 +3603,7 @@
       <c r="Y74" s="19"/>
       <c r="Z74" s="19"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -3631,7 +3631,7 @@
       <c r="Y75" s="19"/>
       <c r="Z75" s="19"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -3659,7 +3659,7 @@
       <c r="Y76" s="19"/>
       <c r="Z76" s="19"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -3687,7 +3687,7 @@
       <c r="Y77" s="19"/>
       <c r="Z77" s="19"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -3715,7 +3715,7 @@
       <c r="Y78" s="19"/>
       <c r="Z78" s="19"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -3743,7 +3743,7 @@
       <c r="Y79" s="19"/>
       <c r="Z79" s="19"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -3771,7 +3771,7 @@
       <c r="Y80" s="19"/>
       <c r="Z80" s="19"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -3799,7 +3799,7 @@
       <c r="Y81" s="19"/>
       <c r="Z81" s="19"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -3827,7 +3827,7 @@
       <c r="Y82" s="19"/>
       <c r="Z82" s="19"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -3855,7 +3855,7 @@
       <c r="Y83" s="19"/>
       <c r="Z83" s="19"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -3883,7 +3883,7 @@
       <c r="Y84" s="19"/>
       <c r="Z84" s="19"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -3911,7 +3911,7 @@
       <c r="Y85" s="19"/>
       <c r="Z85" s="19"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -3939,7 +3939,7 @@
       <c r="Y86" s="19"/>
       <c r="Z86" s="19"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -3967,7 +3967,7 @@
       <c r="Y87" s="19"/>
       <c r="Z87" s="19"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -3995,7 +3995,7 @@
       <c r="Y88" s="19"/>
       <c r="Z88" s="19"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -4023,7 +4023,7 @@
       <c r="Y89" s="19"/>
       <c r="Z89" s="19"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -4051,7 +4051,7 @@
       <c r="Y90" s="19"/>
       <c r="Z90" s="19"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -4079,7 +4079,7 @@
       <c r="Y91" s="19"/>
       <c r="Z91" s="19"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -4107,7 +4107,7 @@
       <c r="Y92" s="19"/>
       <c r="Z92" s="19"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -4135,7 +4135,7 @@
       <c r="Y93" s="19"/>
       <c r="Z93" s="19"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -4163,7 +4163,7 @@
       <c r="Y94" s="19"/>
       <c r="Z94" s="19"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -4191,7 +4191,7 @@
       <c r="Y95" s="19"/>
       <c r="Z95" s="19"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -4219,7 +4219,7 @@
       <c r="Y96" s="19"/>
       <c r="Z96" s="19"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -4247,7 +4247,7 @@
       <c r="Y97" s="19"/>
       <c r="Z97" s="19"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -4275,7 +4275,7 @@
       <c r="Y98" s="19"/>
       <c r="Z98" s="19"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -4332,39 +4332,39 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5546875" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="str" cm="1">
         <f t="array" ref="C3">IF(LEFT(INDEX(C5:C7,$A$4),1)&lt;&gt;"*",INDEX(C5:C7,$A$4),"")</f>
         <v>IE</v>
@@ -4478,12 +4478,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>57</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>59</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>60</v>
       </c>
@@ -5074,7 +5074,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5093,29 +5093,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0966151D-CBC7-469C-AD9B-B324E874F696}">
   <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F4">
         <v>1</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>2</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>3</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>4</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>5</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>6</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>7</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>8</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>9</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>10</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>11</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>12</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>13</v>
       </c>
@@ -5219,16 +5219,16 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="35"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="35"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" s="35"/>
     </row>
   </sheetData>
@@ -5242,21 +5242,21 @@
   <dimension ref="B4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+      <selection activeCell="D9" sqref="D9:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>UC_CB_0_Mt_2051-2100</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>68</v>
       </c>
@@ -5298,24 +5298,24 @@
         <v>Carbon budget 0 Mt 2051-2100</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>74</v>
       </c>
       <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
         <v>106</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>107</v>
       </c>
-      <c r="E6" t="s">
-        <v>108</v>
-      </c>
       <c r="F6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>69</v>
       </c>
@@ -5332,41 +5332,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>77</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -5417,9 +5417,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -5434,7 +5434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>76</v>
       </c>
@@ -5460,51 +5460,51 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9318C9B-7F0A-410C-BCB5-F22D93E1F454}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="str">
         <f>"~UC_Sets: R_E: "  &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3)</f>
         <v>~UC_Sets: R_E: IE</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H4" t="str">
         <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
         <v>~UC_T</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>61</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>73</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>74</v>
@@ -5530,7 +5530,7 @@
         <v>76</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>65</v>
@@ -5539,7 +5539,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>71</v>
       </c>
@@ -5556,17 +5556,17 @@
       </c>
       <c r="L6" s="13"/>
       <c r="N6" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>VLOOKUP($B$5, config!$B$4:$F$14,2,FALSE) &amp; "_Single"</f>
         <v>UC_CB_170_Mt_2021-2025_Single</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
+        <v>TOTCO2</v>
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP(D$5, config!$B$4:$F$14,2,FALSE)</f>
@@ -5602,239 +5602,141 @@
       </c>
       <c r="P7" s="34"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F8" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>2021-2025</v>
-      </c>
-      <c r="J8">
-        <f>VLOOKUP(J$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>-1</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="P8" s="34"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" t="str">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
         <f>VLOOKUP($B$5, config!$B$4:$F$14,3,FALSE) &amp; "_Single"</f>
         <v>UC_CB_116_Mt_2026-2030_Single</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C8" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D9" t="str">
+        <v>TOTCO2</v>
+      </c>
+      <c r="D8" t="str">
         <f>VLOOKUP(D$5, config!$B$4:$F$14,3,FALSE)</f>
         <v>ENV</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F8" t="str">
         <f>VLOOKUP(F$5, config!$B$4:$F$14,3,FALSE)</f>
         <v>2026-2030</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G8" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$F$14,3,FALSE)</f>
         <v>NET</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H8" t="str">
         <f>VLOOKUP(H$5, config!$B$4:$F$14,3,FALSE)</f>
         <v>UP</v>
       </c>
-      <c r="I9">
+      <c r="I8">
         <f>VLOOKUP(I$5, config!$B$4:$F$14,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="17">
-        <f>N9*(1+VLOOKUP(Overshoot!$B$3,Overshoot!$F$3:$G$25,2,FALSE))</f>
+      <c r="K8" s="17">
+        <f>N8*(1+VLOOKUP(Overshoot!$B$3,Overshoot!$F$3:$G$25,2,FALSE))</f>
         <v>116145.83333333333</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L8" t="str">
         <f>VLOOKUP($L$5, config!$B$4:$F$14,3,FALSE) &amp; " - Single"</f>
         <v>Carbon budget 116 Mt 2026-2030 - Single</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N8" s="17">
         <f>config!D7*1000</f>
         <v>116145.83333333333</v>
       </c>
-      <c r="P9" s="34"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C10" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E10" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F10" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>2026-2030</v>
-      </c>
-      <c r="J10">
-        <f>VLOOKUP(J$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>-1</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="P10" s="34"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" t="str">
+      <c r="P8" s="34"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
         <f>VLOOKUP($B$5, config!$B$4:$F$14,4,FALSE) &amp; "_Single"</f>
         <v>UC_CB_114_Mt_2031-2050_Single</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C9" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D11" t="str">
+        <v>TOTCO2</v>
+      </c>
+      <c r="D9" t="str">
         <f>VLOOKUP(D$5, config!$B$4:$F$14,4,FALSE)</f>
         <v>ENV</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F9" t="str">
         <f>VLOOKUP(F$5, config!$B$4:$F$14,4,FALSE)</f>
         <v>2031-2050</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G9" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$F$14,4,FALSE)</f>
         <v>NET</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H9" t="str">
         <f>VLOOKUP(H$5, config!$B$4:$F$14,4,FALSE)</f>
         <v>UP</v>
       </c>
-      <c r="I11">
+      <c r="I9">
         <f>VLOOKUP(I$5, config!$B$4:$F$14,4,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K11" s="17">
-        <f>SUM(N7:N13)-K7-K9</f>
+      <c r="K9" s="17">
+        <f>SUM(N7:N10)-K7-K8</f>
         <v>113541.66666666667</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L9" t="str">
         <f>VLOOKUP($L$5, config!$B$4:$F$14,4,FALSE) &amp; " - Single"</f>
         <v>Carbon budget 114 Mt 2031-2050 - Single</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N9" s="17">
         <f>config!E7*1000</f>
         <v>113541.66666666667</v>
       </c>
-      <c r="P11" s="34"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C12" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E12" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F12" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>2031-2050</v>
-      </c>
-      <c r="J12">
-        <f>VLOOKUP(J$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>-1</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="P12" s="34"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" t="str">
+      <c r="P9" s="34"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
         <f>VLOOKUP($B$5, config!$B$4:$F$14,5,FALSE) &amp; "_Single"</f>
         <v>UC_CB_0_Mt_2051-2100_Single</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C10" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$F$14,5,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D13" t="str">
+        <v>TOTCO2</v>
+      </c>
+      <c r="D10" t="str">
         <f>VLOOKUP(D$5, config!$B$4:$F$14,5,FALSE)</f>
         <v>ENV</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F10" t="str">
         <f>VLOOKUP(F$5, config!$B$4:$F$14,5,FALSE)</f>
         <v>2051-2100</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G10" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$F$14,5,FALSE)</f>
         <v>NET</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H10" t="str">
         <f>VLOOKUP(H$5, config!$B$4:$F$14,5,FALSE)</f>
         <v>UP</v>
       </c>
-      <c r="I13">
+      <c r="I10">
         <f>VLOOKUP(I$5, config!$B$4:$F$14,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K10" s="17">
         <f>VLOOKUP("Value", config!$B$4:$F$14,5,FALSE)*1000</f>
         <v>0</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L10" t="str">
         <f>VLOOKUP($L$5, config!$B$4:$F$14,5,FALSE) &amp; " - Single"</f>
         <v>Carbon budget 0 Mt 2051-2100 - Single</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N10" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C14" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,5,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D14" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,5,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E14" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$F$14,5,FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F14" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,5,FALSE)</f>
-        <v>2051-2100</v>
-      </c>
-      <c r="J14">
-        <f>VLOOKUP(J$5, config!$B$4:$F$14,5,FALSE)</f>
-        <v>-1</v>
-      </c>
-      <c r="N14" s="17"/>
-    </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K17" s="34"/>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K18" s="34"/>
-    </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K19" s="34"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K15" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5845,50 +5747,50 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EC2971-91FC-4261-B0BB-58C7F43C1746}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="str">
         <f>"~UC_Sets: R_S: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!D3:AD3)</f>
         <v>~UC_Sets: R_S: National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H4" t="str">
         <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
         <v>~UC_T</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>61</v>
       </c>
@@ -5899,7 +5801,7 @@
         <v>73</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>74</v>
@@ -5914,7 +5816,7 @@
         <v>76</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>67</v>
@@ -5923,7 +5825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>71</v>
       </c>
@@ -5940,14 +5842,14 @@
       </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>VLOOKUP(B$5, config!$B$4:$F$14,2,FALSE) &amp; "_Multi"</f>
         <v>UC_CB_170_Mt_2021-2025_Multi</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
+        <v>TOTCO2</v>
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP(D$5, config!$B$4:$F$14,2,FALSE)</f>
@@ -5978,206 +5880,118 @@
         <v>Carbon budget 170 Mt 2021-2025 - Multi</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F8" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>2021-2025</v>
-      </c>
-      <c r="J8">
-        <f>VLOOKUP(J$5, config!$B$4:$F$14,2,FALSE)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" t="str">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
         <f>VLOOKUP(B$5, config!$B$4:$F$14,3,FALSE) &amp; "_Multi"</f>
         <v>UC_CB_116_Mt_2026-2030_Multi</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C8" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D9" t="str">
+        <v>TOTCO2</v>
+      </c>
+      <c r="D8" t="str">
         <f>VLOOKUP(D$5, config!$B$4:$F$14,3,FALSE)</f>
         <v>ENV</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F8" t="str">
         <f>VLOOKUP(F$5, config!$B$4:$F$14,3,FALSE)</f>
         <v>2026-2030</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G8" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$F$14,3,FALSE)</f>
         <v>NET</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H8" t="str">
         <f>VLOOKUP(H$5, config!$B$4:$F$14,3,FALSE)</f>
         <v>UP</v>
       </c>
-      <c r="I9">
+      <c r="I8">
         <f>VLOOKUP(I$5, config!$B$4:$F$14,3,FALSE)</f>
         <v>1</v>
       </c>
+      <c r="K8">
+        <f>single!K8</f>
+        <v>116145.83333333333</v>
+      </c>
+      <c r="L8" t="str">
+        <f>VLOOKUP(L$5, config!$B$4:$F$14,3,FALSE) &amp; " - Multi"</f>
+        <v>Carbon budget 116 Mt 2026-2030 - Multi</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f>VLOOKUP(B$5, config!$B$4:$F$14,4,FALSE) &amp; "_Multi"</f>
+        <v>UC_CB_114_Mt_2031-2050_Multi</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$F$14,4,FALSE)</f>
+        <v>TOTCO2</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$F$14,4,FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(F$5, config!$B$4:$F$14,4,FALSE)</f>
+        <v>2031-2050</v>
+      </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$F$14,4,FALSE)</f>
+        <v>NET</v>
+      </c>
+      <c r="H9" t="str">
+        <f>VLOOKUP(H$5, config!$B$4:$F$14,4,FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="I9">
+        <f>VLOOKUP(I$5, config!$B$4:$F$14,4,FALSE)</f>
+        <v>1</v>
+      </c>
       <c r="K9">
         <f>single!K9</f>
-        <v>116145.83333333333</v>
+        <v>113541.66666666667</v>
       </c>
       <c r="L9" t="str">
-        <f>VLOOKUP(L$5, config!$B$4:$F$14,3,FALSE) &amp; " - Multi"</f>
-        <v>Carbon budget 116 Mt 2026-2030 - Multi</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C10" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E10" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F10" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>2026-2030</v>
-      </c>
-      <c r="J10">
-        <f>VLOOKUP(J$5, config!$B$4:$F$14,3,FALSE)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" t="str">
-        <f>VLOOKUP(B$5, config!$B$4:$F$14,4,FALSE) &amp; "_Multi"</f>
-        <v>UC_CB_114_Mt_2031-2050_Multi</v>
-      </c>
-      <c r="C11" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="F11" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>2031-2050</v>
-      </c>
-      <c r="G11" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>NET</v>
-      </c>
-      <c r="H11" t="str">
-        <f>VLOOKUP(H$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>UP</v>
-      </c>
-      <c r="I11">
-        <f>VLOOKUP(I$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <f>single!K11</f>
-        <v>113541.66666666667</v>
-      </c>
-      <c r="L11" t="str">
         <f>VLOOKUP(L$5, config!$B$4:$F$14,4,FALSE) &amp; " - Multi"</f>
         <v>Carbon budget 114 Mt 2031-2050 - Multi</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C12" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E12" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F12" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>2031-2050</v>
-      </c>
-      <c r="J12">
-        <f>VLOOKUP(J$5, config!$B$4:$F$14,4,FALSE)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" t="str">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
         <f>VLOOKUP(B$5, config!$B$4:$F$14,5,FALSE) &amp; "_Multi"</f>
         <v>UC_CB_0_Mt_2051-2100_Multi</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C10" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$F$14,5,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D13" t="str">
+        <v>TOTCO2</v>
+      </c>
+      <c r="D10" t="str">
         <f>VLOOKUP(D$5, config!$B$4:$F$14,5,FALSE)</f>
         <v>ENV</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F10" t="str">
         <f>VLOOKUP(F$5, config!$B$4:$F$14,5,FALSE)</f>
         <v>2051-2100</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G10" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$F$14,5,FALSE)</f>
         <v>NET</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H10" t="str">
         <f>VLOOKUP(H$5, config!$B$4:$F$14,5,FALSE)</f>
         <v>UP</v>
       </c>
-      <c r="I13">
+      <c r="I10">
         <f>VLOOKUP(I$5, config!$B$4:$F$14,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K13">
-        <f>single!K13</f>
+      <c r="K10">
+        <f>single!K10</f>
         <v>0</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L10" t="str">
         <f>VLOOKUP(L$5, config!$B$4:$F$14,5,FALSE) &amp; " - Multi"</f>
         <v>Carbon budget 0 Mt 2051-2100 - Multi</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$F$14,5,FALSE)</f>
-        <v>*CO2*,-*CO2S</v>
-      </c>
-      <c r="D14" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$F$14,5,FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E14" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$F$14,5,FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F14" t="str">
-        <f>VLOOKUP(F$5, config!$B$4:$F$14,5,FALSE)</f>
-        <v>2051-2100</v>
-      </c>
-      <c r="J14">
-        <f>VLOOKUP(J$5, config!$B$4:$F$14,5,FALSE)</f>
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -6195,28 +6009,28 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>74</v>
@@ -6233,18 +6047,18 @@
         <v>National</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
         <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="17">
         <v>-1</v>
